--- a/MiniTemplate/Datas/#reward.xlsx
+++ b/MiniTemplate/Datas/#reward.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -67,6 +67,12 @@
     <t>reward3</t>
   </si>
   <si>
+    <t>lans</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -94,6 +100,12 @@
     <t>list,item.Reward#sep=,</t>
   </si>
   <si>
+    <t>map,string,string</t>
+  </si>
+  <si>
+    <t>vector3?</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -139,6 +151,15 @@
     <t>奖励3</t>
   </si>
   <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>ch-zn</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
     <t>测试道具1</t>
   </si>
   <si>
@@ -166,6 +187,15 @@
     <t>1,22</t>
   </si>
   <si>
+    <t>苹果1</t>
+  </si>
+  <si>
+    <t>apple1</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
     <t>测试道具2</t>
   </si>
   <si>
@@ -190,6 +220,15 @@
     <t>3,2</t>
   </si>
   <si>
+    <t>苹果2</t>
+  </si>
+  <si>
+    <t>apple2</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
     <t>测试道具3</t>
   </si>
   <si>
@@ -209,6 +248,12 @@
   </si>
   <si>
     <t>3,3</t>
+  </si>
+  <si>
+    <t>苹果3</t>
+  </si>
+  <si>
+    <t>apple3</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1174,10 +1219,10 @@
     <col min="10" max="10" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="37.25" customWidth="1"/>
-    <col min="13" max="13" width="22.625" customWidth="1"/>
+    <col min="13" max="13" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,255 +1257,312 @@
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1"/>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="2:14">
-      <c r="B5">
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6">
         <v>1001</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>123</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5">
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
-      <c r="B6">
+    <row r="7" spans="2:17">
+      <c r="B7">
         <v>1002</v>
       </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>321</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" t="s">
-        <v>52</v>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7">
+    <row r="8" spans="2:16">
+      <c r="B8">
         <v>1003</v>
       </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>322</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7">
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" t="s">
-        <v>59</v>
+      <c r="J8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="12:12">
-      <c r="L10" s="5"/>
+    <row r="11" ht="17.25" spans="12:12">
+      <c r="L11" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="M4:N4"/>
   </mergeCells>
